--- a/results/[10_hot_summers]_#_inv_capacity.xlsx
+++ b/results/[10_hot_summers]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04354398615064978</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00529435163932962</v>
+        <v>0.003725587022858967</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1683814974358236</v>
+        <v>0.3717629768396423</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374906</v>
+        <v>0.2494892361375005</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4931552750044823</v>
+        <v>0.3678009020113525</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0.5957133999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04562492499551787</v>
+        <v>0.08226208333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>4.747481147151225</v>
+        <v>12.82873417801238</v>
       </c>
       <c r="O2" t="n">
-        <v>3.64923730514421</v>
+        <v>3.475425528524659</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1837526606366983</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04671422655046342</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3828444721945384</v>
+        <v>0.227037787022859</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4226440258914801</v>
+        <v>0.5575521882485598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.113578995770706</v>
+        <v>0.1504622697400875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1483340750044821</v>
+        <v>0.04790916666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>9.356625152067563</v>
+        <v>5.725818980985812</v>
       </c>
       <c r="O2" t="n">
-        <v>5.377549032225762</v>
+        <v>2.958482383999864</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2463303422390867</v>
+        <v>0.09246557211163992</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.03201577550183085</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8460407913486669</v>
+        <v>0.1659256519093786</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.594057649255787</v>
+        <v>0.2978005395653942</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6200895375626274</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3043996165149172</v>
+        <v>0.04688944789627539</v>
       </c>
       <c r="N2" t="n">
-        <v>18.37160701730432</v>
+        <v>7.70534674480178</v>
       </c>
       <c r="O2" t="n">
-        <v>17.4299434400135</v>
+        <v>4.371478642922033</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_inv_capacity.xlsx
+++ b/results/[10_hot_summers]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003725587022858967</v>
+        <v>0.0027282</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3717629768396423</v>
+        <v>0.3725572890751533</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375005</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3678009020113525</v>
+        <v>0.3669021</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5957133999999999</v>
+        <v>0.5961429402307628</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08226208333333333</v>
+        <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.82873417801238</v>
+        <v>12.90833032859821</v>
       </c>
       <c r="O2" t="n">
-        <v>3.475425528524659</v>
+        <v>3.475337169561454</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04671422655046342</v>
+        <v>0.06802560000000066</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.227037787022859</v>
+        <v>0.3710309236677573</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5575521882485598</v>
+        <v>0.7381097563895144</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1504622697400875</v>
+        <v>0.3168957764359041</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04790916666666666</v>
+        <v>0.08173224999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>5.725818980985812</v>
+        <v>8.975002603116078</v>
       </c>
       <c r="O2" t="n">
-        <v>2.958482383999864</v>
+        <v>4.340088225780883</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09246557211163992</v>
+        <v>0.09762676620383053</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03201577550183085</v>
+        <v>0.02931738907515262</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1659256519093786</v>
+        <v>0.1495921412480008</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2978005395653942</v>
+        <v>0.2469301557893744</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04688944789627539</v>
+        <v>0.04645608333333337</v>
       </c>
       <c r="N2" t="n">
-        <v>7.70534674480178</v>
+        <v>9.012664873503194</v>
       </c>
       <c r="O2" t="n">
-        <v>4.371478642922033</v>
+        <v>4.788897617609521</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_inv_capacity.xlsx
+++ b/results/[10_hot_summers]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04354398615064978</v>
+        <v>0.1774173491026326</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00529435163932962</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6988865504857342</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1683814974358236</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3247024241048813</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374906</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4931552750044823</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04562492499551787</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.747481147151225</v>
+        <v>8.76112597924239</v>
       </c>
       <c r="O2" t="n">
-        <v>3.64923730514421</v>
+        <v>3.364628064996621</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1837526606366983</v>
+        <v>0.1089404830902003</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.247372045549212</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3828444721945384</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2403690565694547</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1601876657393662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4226440258914801</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.113578995770706</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1483340750044821</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.356625152067563</v>
+        <v>25.22563143663345</v>
       </c>
       <c r="O2" t="n">
-        <v>5.377549032225762</v>
+        <v>7.647405063899626</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2463303422390867</v>
+        <v>0.9821017895460057</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.579083690045376</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8460407913486669</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.03015563704987434</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1053641462222254</v>
       </c>
       <c r="I2" t="n">
-        <v>1.594057649255787</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6200895375626274</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3043996165149172</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.37160701730432</v>
+        <v>26.00214308993363</v>
       </c>
       <c r="O2" t="n">
-        <v>17.4299434400135</v>
+        <v>6.284727229436536</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[10_hot_summers]_#_inv_capacity.xlsx
+++ b/results/[10_hot_summers]_#_inv_capacity.xlsx
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.76112597924239</v>
+        <v>8.761125979242133</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996621</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1089404830902003</v>
+        <v>0.1089404830902112</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.247372045549212</v>
+        <v>2.247372045549211</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25.22563143663345</v>
+        <v>25.22563143663304</v>
       </c>
       <c r="O2" t="n">
-        <v>7.647405063899626</v>
+        <v>7.64740506389963</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9821017895460057</v>
+        <v>0.9821017895460281</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.579083690045376</v>
+        <v>1.579083690045373</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03015563704987434</v>
+        <v>0.03015563704984292</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1053641462222254</v>
+        <v>0.10536414622222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.00214308993363</v>
+        <v>26.00214308993374</v>
       </c>
       <c r="O2" t="n">
-        <v>6.284727229436536</v>
+        <v>6.28472722943676</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_inv_capacity.xlsx
+++ b/results/[10_hot_summers]_#_inv_capacity.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361374619</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5961429402307628</v>
+        <v>0.5961429402307629</v>
       </c>
       <c r="M2" t="n">
         <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.90833032859821</v>
+        <v>12.90833032859898</v>
       </c>
       <c r="O2" t="n">
         <v>3.475337169561454</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06802560000000066</v>
+        <v>0.06802560000000053</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3710309236677573</v>
+        <v>0.3710309236677829</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3168957764359041</v>
+        <v>0.3168957764359039</v>
       </c>
       <c r="M2" t="n">
         <v>0.08173224999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>8.975002603116078</v>
+        <v>8.975002603114424</v>
       </c>
       <c r="O2" t="n">
-        <v>4.340088225780883</v>
+        <v>4.340088225780898</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09762676620383053</v>
+        <v>0.09762676620383046</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02931738907515262</v>
+        <v>0.02931738907515274</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1495921412480008</v>
+        <v>0.1495921412479774</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2469301557893744</v>
+        <v>0.2469301557893979</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.04645608333333337</v>
       </c>
       <c r="N2" t="n">
-        <v>9.012664873503194</v>
+        <v>9.012664873504697</v>
       </c>
       <c r="O2" t="n">
-        <v>4.788897617609521</v>
+        <v>4.788897617609024</v>
       </c>
     </row>
   </sheetData>
